--- a/Assets/Excel/rythmBeatNormalSet_StreetCityPop.xlsx
+++ b/Assets/Excel/rythmBeatNormalSet_StreetCityPop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Work\VSei\VseiTaihen\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A9A1D-ED87-4514-A9F4-77EBEB09C010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8D695-3D80-4A00-B73F-75C0FA125E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2970" windowWidth="28800" windowHeight="15345" xr2:uid="{8A165E50-3997-4761-88A2-C6F9E98E6625}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8A165E50-3997-4761-88A2-C6F9E98E6625}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B4922-8075-456F-BC0D-A23A96BB571D}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -791,35 +791,107 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,7 +1436,7 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" ref="A117:A120" si="2">ROW()-1</f>
+        <f t="shared" ref="A117:A119" si="2">ROW()-1</f>
         <v>116</v>
       </c>
     </row>

--- a/Assets/Excel/rythmBeatNormalSet_StreetCityPop.xlsx
+++ b/Assets/Excel/rythmBeatNormalSet_StreetCityPop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Work\VSei\VseiTaihen\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8D695-3D80-4A00-B73F-75C0FA125E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85685A1-32F2-4D80-A09A-47D3DFF52AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8A165E50-3997-4761-88A2-C6F9E98E6625}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E119" sqref="B2:E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -899,557 +899,1673 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A114" si="1">ROW()-1</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>ROW()-1</f>
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>ROW()-1</f>
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" ref="A117:A119" si="2">ROW()-1</f>
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
